--- a/matlab/Parameters/Par_HUN_2024-02-26_Agens_Wild.xlsx
+++ b/matlab/Parameters/Par_HUN_2024-02-26_Agens_Wild.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t xml:space="preserve">Label</t>
   </si>
@@ -55,6 +55,9 @@
     <t xml:space="preserve">Rel_beta_A</t>
   </si>
   <si>
+    <t xml:space="preserve">Rel_beta_H</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pr_I</t>
   </si>
   <si>
@@ -64,31 +67,19 @@
     <t xml:space="preserve">Pr_D</t>
   </si>
   <si>
-    <t xml:space="preserve">New_Cases_Shift</t>
-  </si>
-  <si>
     <t xml:space="preserve">beta0</t>
   </si>
   <si>
     <t xml:space="preserve">beta_max</t>
   </si>
   <si>
-    <t xml:space="preserve">w_Szv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">w_H</t>
-  </si>
-  <si>
     <t xml:space="preserve">Transient</t>
   </si>
   <si>
-    <t xml:space="preserve">Wild</t>
-  </si>
-  <si>
     <t xml:space="preserve">Original</t>
   </si>
   <si>
-    <t xml:space="preserve">Future</t>
+    <t xml:space="preserve">Alpha</t>
   </si>
 </sst>
 </file>
@@ -129,6 +120,7 @@
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -206,6 +198,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -226,7 +222,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -256,10 +252,6 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -346,10 +338,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="L5" activeCellId="0" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.96"/>
@@ -361,17 +353,16 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="11.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="5.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="11.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="6.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="16.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="12.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="5.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="11.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="6.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="6.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="9.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="18" style="0" width="6.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1022" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -405,7 +396,7 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
@@ -423,201 +414,185 @@
       <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="AME1" s="0"/>
+      <c r="AMF1" s="0"/>
       <c r="AMG1" s="0"/>
       <c r="AMH1" s="0"/>
       <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
     </row>
-    <row r="2" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="5" t="n">
+    <row r="2" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="6" t="n">
         <v>43739</v>
       </c>
-      <c r="E2" s="6" t="n">
+      <c r="E2" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="F2" s="6" t="n">
+      <c r="F2" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="G2" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="H2" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="I2" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="J2" s="7" t="n">
+        <v>12</v>
+      </c>
+      <c r="K2" s="7" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="L2" s="7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="M2" s="7" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="N2" s="7" t="n">
+        <v>0.076</v>
+      </c>
+      <c r="O2" s="8" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="P2" s="7" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="Q2" s="7" t="n">
         <v>1.5</v>
       </c>
-      <c r="G2" s="6" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="H2" s="6" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="I2" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="J2" s="6" t="n">
-        <v>12</v>
-      </c>
-      <c r="K2" s="6" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="L2" s="6" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="M2" s="6" t="n">
-        <v>0.076</v>
-      </c>
-      <c r="N2" s="7" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="O2" s="6" t="n">
-        <v>12</v>
-      </c>
-      <c r="P2" s="6" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="Q2" s="6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="R2" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="S2" s="6" t="n">
-        <v>1</v>
-      </c>
+      <c r="AME2" s="0"/>
+      <c r="AMF2" s="0"/>
       <c r="AMG2" s="0"/>
       <c r="AMH2" s="0"/>
       <c r="AMI2" s="0"/>
       <c r="AMJ2" s="0"/>
     </row>
-    <row r="3" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="10" t="n">
+    <row r="3" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="11" t="n">
         <v>43936</v>
       </c>
-      <c r="E3" s="11" t="n">
+      <c r="E3" s="12" t="n">
         <v>30</v>
       </c>
-      <c r="F3" s="11" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="G3" s="11" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="H3" s="11" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="I3" s="11" t="n">
+      <c r="F3" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="G3" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="H3" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="J3" s="11" t="n">
+      <c r="I3" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="J3" s="12" t="n">
         <v>12</v>
       </c>
-      <c r="K3" s="12" t="n">
+      <c r="K3" s="13" t="n">
         <v>0.75</v>
       </c>
-      <c r="L3" s="12" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="M3" s="12" t="n">
+      <c r="L3" s="13" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="M3" s="13" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="N3" s="13" t="n">
         <v>0.076</v>
       </c>
-      <c r="N3" s="11" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="O3" s="11" t="n">
-        <v>12</v>
-      </c>
-      <c r="P3" s="11" t="n">
+      <c r="O3" s="12" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="P3" s="12" t="n">
         <v>0.33</v>
       </c>
-      <c r="Q3" s="11" t="n">
+      <c r="Q3" s="12" t="n">
         <v>0.5</v>
       </c>
-      <c r="R3" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="S3" s="11" t="n">
-        <v>1</v>
-      </c>
+      <c r="AME3" s="0"/>
+      <c r="AMF3" s="0"/>
       <c r="AMG3" s="0"/>
       <c r="AMH3" s="0"/>
       <c r="AMI3" s="0"/>
       <c r="AMJ3" s="0"/>
     </row>
-    <row r="4" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="14" t="n">
-        <v>46022</v>
-      </c>
-      <c r="E4" s="6" t="n">
-        <v>15</v>
-      </c>
-      <c r="F4" s="6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="G4" s="6" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="H4" s="6" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="I4" s="15" t="n">
+    <row r="4" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="15" t="n">
+        <v>44228</v>
+      </c>
+      <c r="E4" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="F4" s="7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G4" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="H4" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="I4" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="J4" s="6" t="n">
-        <v>12</v>
-      </c>
-      <c r="K4" s="6" t="n">
+      <c r="J4" s="7" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="K4" s="7" t="n">
         <v>0.75</v>
       </c>
       <c r="L4" s="7" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="M4" s="7" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="N4" s="15" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="O4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" s="6" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Q4" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="R4" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="S4" s="6" t="n">
-        <v>1</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="M4" s="8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N4" s="8" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="O4" s="8" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="P4" s="7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q4" s="7" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AME4" s="0"/>
+      <c r="AMF4" s="0"/>
       <c r="AMG4" s="0"/>
       <c r="AMH4" s="0"/>
       <c r="AMI4" s="0"/>
